--- a/04 - MID/01 - Create/03 - LinkMachine/Data.xlsx
+++ b/04 - MID/01 - Create/03 - LinkMachine/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\04 - MID\01 - Create\03 - LinkMachine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84C02FD-8B99-4129-9EB8-DECCF4C59C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C9AB98-0207-4BF2-9F59-43DF6E762188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{3718D32B-9188-4ED9-B393-40F3181E94A9}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="12645" xr2:uid="{3718D32B-9188-4ED9-B393-40F3181E94A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -15031,10 +15031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FECC66-60F8-4D0C-9500-262A9824CD5F}">
-  <dimension ref="A1:F2062"/>
+  <dimension ref="A1:K2062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15320,7 +15320,7 @@
         <v>433171033</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>60</v>
       </c>
@@ -15337,7 +15337,7 @@
         <v>433171034</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>64</v>
       </c>
@@ -15354,7 +15354,7 @@
         <v>433171035</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>68</v>
       </c>
@@ -15371,7 +15371,7 @@
         <v>433171036</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
@@ -15388,7 +15388,7 @@
         <v>433171038</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>76</v>
       </c>
@@ -15405,7 +15405,7 @@
         <v>433171039</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>80</v>
       </c>
@@ -15422,7 +15422,7 @@
         <v>433171040</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>78</v>
       </c>
@@ -15439,7 +15439,7 @@
         <v>433171041</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>86</v>
       </c>
@@ -15455,8 +15455,11 @@
       <c r="E24" s="16">
         <v>433171042</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>433271466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>90</v>
       </c>
@@ -15473,7 +15476,7 @@
         <v>433171043</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>94</v>
       </c>
@@ -15490,7 +15493,7 @@
         <v>433171044</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>98</v>
       </c>
@@ -15507,7 +15510,7 @@
         <v>433171045</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>102</v>
       </c>
@@ -15524,7 +15527,7 @@
         <v>433171046</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>106</v>
       </c>
@@ -15541,7 +15544,7 @@
         <v>433171047</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>110</v>
       </c>
@@ -15558,7 +15561,7 @@
         <v>433171048</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>114</v>
       </c>
@@ -15573,7 +15576,7 @@
         <v>433171049</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>117</v>
       </c>

--- a/04 - MID/01 - Create/03 - LinkMachine/Data.xlsx
+++ b/04 - MID/01 - Create/03 - LinkMachine/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\04 - MID\01 - Create\03 - LinkMachine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C9AB98-0207-4BF2-9F59-43DF6E762188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091168C5-042D-4EDF-8881-F4060B82CD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="12645" xr2:uid="{3718D32B-9188-4ED9-B393-40F3181E94A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{3718D32B-9188-4ED9-B393-40F3181E94A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -15031,10 +15031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FECC66-60F8-4D0C-9500-262A9824CD5F}">
-  <dimension ref="A1:K2062"/>
+  <dimension ref="A1:F2062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15320,7 +15320,7 @@
         <v>433171033</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>60</v>
       </c>
@@ -15337,7 +15337,7 @@
         <v>433171034</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>64</v>
       </c>
@@ -15354,7 +15354,7 @@
         <v>433171035</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>68</v>
       </c>
@@ -15371,7 +15371,7 @@
         <v>433171036</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
@@ -15388,7 +15388,7 @@
         <v>433171038</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>76</v>
       </c>
@@ -15405,7 +15405,7 @@
         <v>433171039</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>80</v>
       </c>
@@ -15422,7 +15422,7 @@
         <v>433171040</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>78</v>
       </c>
@@ -15439,7 +15439,7 @@
         <v>433171041</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>86</v>
       </c>
@@ -15455,11 +15455,8 @@
       <c r="E24" s="16">
         <v>433171042</v>
       </c>
-      <c r="K24">
-        <v>433271466</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>90</v>
       </c>
@@ -15476,7 +15473,7 @@
         <v>433171043</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>94</v>
       </c>
@@ -15493,7 +15490,7 @@
         <v>433171044</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>98</v>
       </c>
@@ -15510,7 +15507,7 @@
         <v>433171045</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>102</v>
       </c>
@@ -15527,7 +15524,7 @@
         <v>433171046</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>106</v>
       </c>
@@ -15544,7 +15541,7 @@
         <v>433171047</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>110</v>
       </c>
@@ -15561,7 +15558,7 @@
         <v>433171048</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>114</v>
       </c>
@@ -15576,7 +15573,7 @@
         <v>433171049</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>117</v>
       </c>
